--- a/заказы/статистика филиалы/2024/02,24/01,02,24 ЗПФ/дв 01,02,24 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2024/02,24/01,02,24 ЗПФ/дв 01,02,24 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\01,02,24 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\02,24\01,02,24 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC257E-255E-45E2-A3AE-939E2F905AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B73E97-CC96-4CDB-B196-1A31909D1028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,8 +707,8 @@
   <dimension ref="A1:AW496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N43" sqref="N43:O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2086,7 @@
         <v>1.8</v>
       </c>
       <c r="AB15" s="9">
-        <f t="shared" ref="AB7:AB46" si="9">Q15/AA15</f>
+        <f t="shared" ref="AB15:AB45" si="9">Q15/AA15</f>
         <v>0</v>
       </c>
       <c r="AC15" s="1">
